--- a/biology/Zoologie/Camptosaurus/Camptosaurus.xlsx
+++ b/biology/Zoologie/Camptosaurus/Camptosaurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Camptosauridae
 Camptosaurus (ou « lézard tordu » ou « lézard courbé » à cause des os courbés de ses cuisses) était un genre de dinosaures de l'ordre des ornithischiens, du sous-ordre des ornithopodes et de la famille des camptosauridés.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Camptosaurus mesurait 6 mètres de long et pesait 800 kilos, il vivait au Jurassique supérieur (il y a environ -156 à 144 millions d'années), en Angleterre, en France et aux États-Unis.
 Il pouvait facilement se nourrir avec les végétaux coriaces qui poussaient au Jurassique supérieur et au Crétacé inférieur. Sa mâchoire inférieure comptait de nombreuses rangées de dents rugueuses idéales pour broyer et déchiqueter la végétation.
@@ -545,7 +559,9 @@
           <t>Liens internes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Voir Liste des dinosaures
 Sur les autres projets Wikimedia :
